--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_10_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_10_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29295.9134591516</v>
+        <v>-153115.3203463487</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11429081.61589086</v>
+        <v>10514168.33255885</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22932201.65445002</v>
+        <v>21982289.49695059</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3821851.929891356</v>
+        <v>4305201.046097888</v>
       </c>
     </row>
     <row r="11">
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,19 +8616,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K18" t="n">
         <v>24.54878065809741</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,25 +9324,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N19" t="n">
         <v>37.67551094615366</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q20" t="n">
         <v>80.70197082457096</v>
@@ -9482,7 +9482,7 @@
         <v>60.55202075660908</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N22" t="n">
         <v>37.67551094615366</v>
@@ -9576,7 +9576,7 @@
         <v>55.31770395088348</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9640,25 +9640,25 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L23" t="n">
         <v>28.8362588753597</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,19 +9798,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L25" t="n">
         <v>47.4359690887577</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P25" t="n">
         <v>66.5883684560963</v>
@@ -9877,25 +9877,25 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L28" t="n">
         <v>47.4359690887577</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O28" t="n">
         <v>55.31770395088348</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10114,25 +10114,25 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10278,16 +10278,16 @@
         <v>47.4359690887577</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10354,22 +10354,22 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L34" t="n">
         <v>47.4359690887577</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O34" t="n">
         <v>55.31770395088348</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q35" t="n">
         <v>80.70197082457096</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L37" t="n">
-        <v>47.43596908875769</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O37" t="n">
         <v>55.31770395088348</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L40" t="n">
         <v>47.4359690887577</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O40" t="n">
         <v>55.31770395088348</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,7 +11141,7 @@
         <v>60.55202075660908</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N43" t="n">
-        <v>37.67551094615366</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>69.70579724700553</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23193,49 +23193,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23281,28 +23281,28 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J11" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>67.4992912993288</v>
@@ -23360,10 +23360,10 @@
         <v>65.24074378433592</v>
       </c>
       <c r="J12" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,10 +23381,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>102.1188968768846</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S12" t="n">
         <v>158.6512997408977</v>
@@ -23442,22 +23442,22 @@
         <v>51.77372115642321</v>
       </c>
       <c r="K13" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>36.90864702141808</v>
@@ -23518,28 +23518,28 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J14" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>67.4992912993288</v>
@@ -23597,10 +23597,10 @@
         <v>65.24074378433592</v>
       </c>
       <c r="J15" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23618,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>56.59722706556381</v>
@@ -23755,28 +23755,28 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J17" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>67.4992912993288</v>
@@ -23834,7 +23834,7 @@
         <v>65.24074378433592</v>
       </c>
       <c r="J18" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>56.59722706556381</v>
@@ -23916,25 +23916,25 @@
         <v>51.77372115642321</v>
       </c>
       <c r="K19" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>102.2516053991695</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R19" t="n">
         <v>150.8459592031442</v>
@@ -23992,25 +23992,25 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J20" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -24074,7 +24074,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24092,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>56.59722706556381</v>
@@ -24150,16 +24150,16 @@
         <v>137.761816287615</v>
       </c>
       <c r="J22" t="n">
-        <v>85.40996247914654</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K22" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -24168,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>36.90864702141808</v>
@@ -24232,25 +24232,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>67.4992912993288</v>
@@ -24308,10 +24308,10 @@
         <v>65.24074378433592</v>
       </c>
       <c r="J24" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>56.59722706556381</v>
@@ -24390,19 +24390,19 @@
         <v>51.77372115642321</v>
       </c>
       <c r="K25" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -24469,25 +24469,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>67.4992912993288</v>
@@ -24545,10 +24545,10 @@
         <v>65.24074378433592</v>
       </c>
       <c r="J27" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24566,7 +24566,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>56.59722706556381</v>
@@ -24627,22 +24627,22 @@
         <v>51.77372115642321</v>
       </c>
       <c r="K28" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>36.90864702141808</v>
@@ -24706,25 +24706,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>67.4992912993288</v>
@@ -24782,10 +24782,10 @@
         <v>65.24074378433592</v>
       </c>
       <c r="J30" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>56.59722706556381</v>
@@ -24870,16 +24870,16 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>36.90864702141808</v>
@@ -24946,22 +24946,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>67.4992912993288</v>
@@ -25019,10 +25019,10 @@
         <v>65.24074378433592</v>
       </c>
       <c r="J33" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>56.59722706556381</v>
@@ -25101,22 +25101,22 @@
         <v>51.77372115642321</v>
       </c>
       <c r="K34" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>36.90864702141808</v>
@@ -25177,25 +25177,25 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J35" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>28.83625887535973</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.09656339947139259</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25256,10 +25256,10 @@
         <v>65.24074378433592</v>
       </c>
       <c r="J36" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25277,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>56.59722706556381</v>
@@ -25338,22 +25338,22 @@
         <v>51.77372115642321</v>
       </c>
       <c r="K37" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>37.67551094615368</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>36.90864702141808</v>
@@ -25414,31 +25414,31 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J38" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>133.2157111723112</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S38" t="n">
         <v>179.1392278518137</v>
@@ -25493,10 +25493,10 @@
         <v>65.24074378433592</v>
       </c>
       <c r="J39" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>56.59722706556381</v>
@@ -25575,22 +25575,22 @@
         <v>51.77372115642321</v>
       </c>
       <c r="K40" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>36.90864702141808</v>
@@ -25651,28 +25651,28 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J41" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>67.4992912993288</v>
@@ -25733,7 +25733,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>56.59722706556381</v>
@@ -25812,22 +25812,22 @@
         <v>51.77372115642321</v>
       </c>
       <c r="K43" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>36.90864702141808</v>
@@ -25879,22 +25879,22 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H44" t="n">
-        <v>326.0400019133721</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I44" t="n">
-        <v>159.9014836333536</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25903,25 +25903,25 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.069265482343781</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.64258426171736</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>67.46474657889402</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S44" t="n">
-        <v>179.1266962566148</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3533046710778</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,19 +25958,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H45" t="n">
-        <v>105.4566448252536</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I45" t="n">
-        <v>75.35636030051944</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J45" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>102.1006281848752</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S45" t="n">
-        <v>158.6458343615066</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3356112293665</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4025366526095</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H46" t="n">
-        <v>156.9953819045248</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I46" t="n">
-        <v>137.7543979186262</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J46" t="n">
-        <v>85.39252213584972</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K46" t="n">
-        <v>60.64691470913344</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>47.39929435887774</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>46.68471506615327</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>37.63776203285606</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>55.28283671961447</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>66.55853351624533</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.88799085553058</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R46" t="n">
-        <v>150.8348675305268</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S46" t="n">
-        <v>213.761646517762</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4313342305617</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2869324816264</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>353597.9125479338</v>
+        <v>378352.842850785</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>304514.0448096714</v>
+        <v>370785.11122001</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>321097.2461472761</v>
+        <v>370785.11122001</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>308551.2394423752</v>
+        <v>370785.11122001</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>326119.4900757958</v>
+        <v>370785.11122001</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>326414.1851130454</v>
+        <v>370785.11122001</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>321923.9263424888</v>
+        <v>370785.11122001</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>322148.9569076782</v>
+        <v>370785.11122001</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>329347.2018486366</v>
+        <v>370785.11122001</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>323449.1915131991</v>
+        <v>370785.11122001</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>303053.1096890298</v>
+        <v>370785.11122001</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>313967.0841095502</v>
+        <v>370785.11122001</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>312151.9661113547</v>
+        <v>370785.11122001</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53753.70276572321</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="C2" t="n">
-        <v>53753.70276572321</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="D2" t="n">
-        <v>50513.9875068477</v>
+        <v>54552.57947438834</v>
       </c>
       <c r="E2" t="n">
-        <v>50417.51332270358</v>
+        <v>59884.80852418039</v>
       </c>
       <c r="F2" t="n">
-        <v>52786.54208521852</v>
+        <v>59884.80852418039</v>
       </c>
       <c r="G2" t="n">
-        <v>50994.25541308982</v>
+        <v>59884.80852418039</v>
       </c>
       <c r="H2" t="n">
-        <v>53504.00550357849</v>
+        <v>59884.80852418039</v>
       </c>
       <c r="I2" t="n">
-        <v>53546.10479461412</v>
+        <v>59884.80852418039</v>
       </c>
       <c r="J2" t="n">
-        <v>52904.63925596319</v>
+        <v>59884.80852418039</v>
       </c>
       <c r="K2" t="n">
-        <v>52936.78647956167</v>
+        <v>59884.80852418039</v>
       </c>
       <c r="L2" t="n">
-        <v>53965.10718541285</v>
+        <v>59884.80852418039</v>
       </c>
       <c r="M2" t="n">
-        <v>53122.53428035038</v>
+        <v>59884.80852418039</v>
       </c>
       <c r="N2" t="n">
-        <v>50208.80830546907</v>
+        <v>59884.80852418039</v>
       </c>
       <c r="O2" t="n">
-        <v>51767.94750840056</v>
+        <v>59884.80852418043</v>
       </c>
       <c r="P2" t="n">
-        <v>51510.83437340008</v>
+        <v>59884.80852418043</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19708.98312032399</v>
       </c>
       <c r="E3" t="n">
-        <v>262055.141003925</v>
+        <v>243566.1203132104</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>91.04800176648637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,43 +26423,43 @@
         <v>53753.7027657232</v>
       </c>
       <c r="D4" t="n">
-        <v>50513.98750684768</v>
+        <v>51037.36600445495</v>
       </c>
       <c r="E4" t="n">
-        <v>2008.964873450199</v>
+        <v>11476.26007492705</v>
       </c>
       <c r="F4" t="n">
-        <v>4377.993635965149</v>
+        <v>11476.26007492705</v>
       </c>
       <c r="G4" t="n">
-        <v>2585.706963836446</v>
+        <v>11476.26007492705</v>
       </c>
       <c r="H4" t="n">
-        <v>5095.457054325101</v>
+        <v>11476.26007492705</v>
       </c>
       <c r="I4" t="n">
-        <v>5137.556345360748</v>
+        <v>11476.26007492705</v>
       </c>
       <c r="J4" t="n">
-        <v>4496.090806709813</v>
+        <v>11476.26007492705</v>
       </c>
       <c r="K4" t="n">
-        <v>4528.238030308304</v>
+        <v>11476.26007492705</v>
       </c>
       <c r="L4" t="n">
-        <v>5556.55873615949</v>
+        <v>11476.26007492705</v>
       </c>
       <c r="M4" t="n">
-        <v>4713.985831097008</v>
+        <v>11476.26007492705</v>
       </c>
       <c r="N4" t="n">
-        <v>1800.259856215697</v>
+        <v>11476.26007492705</v>
       </c>
       <c r="O4" t="n">
-        <v>3359.399059147178</v>
+        <v>11476.26007492705</v>
       </c>
       <c r="P4" t="n">
-        <v>3086.959870954269</v>
+        <v>11476.26007492705</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>34129.29174257201</v>
       </c>
       <c r="E5" t="n">
         <v>7110.755217351149</v>
@@ -26511,7 +26511,7 @@
         <v>7110.755217351149</v>
       </c>
       <c r="P5" t="n">
-        <v>7113.737365803781</v>
+        <v>7110.755217351149</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-65393.84769213086</v>
       </c>
       <c r="E6" t="n">
-        <v>-220757.3477720228</v>
+        <v>-216805.8904754972</v>
       </c>
       <c r="F6" t="n">
-        <v>41297.79323190222</v>
+        <v>26760.22983771315</v>
       </c>
       <c r="G6" t="n">
-        <v>41297.79323190222</v>
+        <v>26760.22983771315</v>
       </c>
       <c r="H6" t="n">
-        <v>41297.79323190224</v>
+        <v>26760.22983771315</v>
       </c>
       <c r="I6" t="n">
-        <v>41297.79323190222</v>
+        <v>26760.22983771315</v>
       </c>
       <c r="J6" t="n">
-        <v>41297.79323190222</v>
+        <v>26760.22983771315</v>
       </c>
       <c r="K6" t="n">
-        <v>41297.79323190221</v>
+        <v>26760.22983771315</v>
       </c>
       <c r="L6" t="n">
-        <v>41297.79323190221</v>
+        <v>26760.22983771315</v>
       </c>
       <c r="M6" t="n">
-        <v>41297.79323190222</v>
+        <v>26760.22983771315</v>
       </c>
       <c r="N6" t="n">
-        <v>41297.79323190222</v>
+        <v>26760.22983771315</v>
       </c>
       <c r="O6" t="n">
-        <v>41297.79323190223</v>
+        <v>26760.22983771318</v>
       </c>
       <c r="P6" t="n">
-        <v>41219.08913487554</v>
+        <v>26760.22983771318</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
         <v>326.1814319885848</v>
@@ -26779,7 +26779,7 @@
         <v>326.1814319885848</v>
       </c>
       <c r="P3" t="n">
-        <v>326.3182277891643</v>
+        <v>326.1814319885848</v>
       </c>
     </row>
     <row r="4">
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
-        <v>326.1814319885848</v>
+        <v>303.1680493017955</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1367958005794776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.9474806248887679</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760344</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679516</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.0495004835149808</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277522957</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -33666,7 +33666,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M35" t="n">
-        <v>230.2496698278013</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
@@ -33815,19 +33815,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J37" t="n">
-        <v>41.58545896024956</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K37" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L37" t="n">
-        <v>87.4487071924806</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M37" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N37" t="n">
-        <v>90.01003351907951</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O37" t="n">
         <v>83.13883450095931</v>
@@ -34140,7 +34140,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M41" t="n">
-        <v>230.2496698278014</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
@@ -34289,19 +34289,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J43" t="n">
-        <v>41.58545896024957</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K43" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L43" t="n">
-        <v>87.44870719248058</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M43" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N43" t="n">
-        <v>90.01003351907953</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O43" t="n">
         <v>83.13883450095931</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.311832071514227</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H44" t="n">
-        <v>13.43480020239508</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I44" t="n">
-        <v>50.5744059370523</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J44" t="n">
-        <v>111.3401072796808</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K44" t="n">
-        <v>166.869958866878</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L44" t="n">
-        <v>207.0169396254816</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>221.0289459393429</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P44" t="n">
-        <v>188.6430916738354</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.6631056127321</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R44" t="n">
-        <v>82.40437136225566</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S44" t="n">
-        <v>29.89337332963048</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T44" t="n">
-        <v>5.742544893053533</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.70189203713141</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H45" t="n">
-        <v>6.778799411242828</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I45" t="n">
-        <v>24.16601969948056</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J45" t="n">
-        <v>66.31340513968291</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K45" t="n">
-        <v>113.3401716274874</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34468,19 +34468,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.59590284505508</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R45" t="n">
-        <v>43.57887577908879</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S45" t="n">
-        <v>13.03733674233122</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T45" t="n">
-        <v>2.829117465455112</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H46" t="n">
-        <v>5.231790602914802</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I46" t="n">
-        <v>17.69607700863206</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J46" t="n">
-        <v>41.60289930354639</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K46" t="n">
-        <v>68.36634346140194</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L46" t="n">
-        <v>87.48538192236055</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M46" t="n">
-        <v>92.24106888145178</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N46" t="n">
-        <v>90.04778243237713</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O46" t="n">
-        <v>83.17370173222832</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P46" t="n">
-        <v>71.16947053290228</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.2740523961638</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R46" t="n">
-        <v>26.45852384664272</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S46" t="n">
-        <v>10.25495151921029</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T46" t="n">
-        <v>2.514255197719789</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U46" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_10_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_10_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-153115.3203463487</v>
+        <v>-42153.10699089798</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10514168.33255885</v>
+        <v>10487004.96494616</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21982289.49695059</v>
+        <v>21990278.26403724</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4305201.046097888</v>
+        <v>4303280.813580578</v>
       </c>
     </row>
     <row r="11">
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,19 +8616,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -10117,10 +10117,10 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L29" t="n">
-        <v>28.8362588753597</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09656339947136416</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10275,13 +10275,13 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L31" t="n">
-        <v>47.4359690887577</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M31" t="n">
         <v>46.72338342663512</v>
       </c>
       <c r="N31" t="n">
-        <v>37.67551094615366</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O31" t="n">
         <v>55.31770395088348</v>
@@ -11302,10 +11302,10 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L44" t="n">
-        <v>28.83625887535973</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M44" t="n">
-        <v>0.09656339947139259</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11460,13 +11460,13 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L46" t="n">
-        <v>47.43596908875769</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M46" t="n">
         <v>46.72338342663512</v>
       </c>
       <c r="N46" t="n">
-        <v>37.67551094615368</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O46" t="n">
         <v>55.31770395088348</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.909162189371</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852173</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644702</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703757</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839145</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>378352.842850785</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="5">
@@ -26316,19 +26316,19 @@
         <v>53753.7027657232</v>
       </c>
       <c r="C2" t="n">
+        <v>53753.70276572321</v>
+      </c>
+      <c r="D2" t="n">
         <v>53753.7027657232</v>
-      </c>
-      <c r="D2" t="n">
-        <v>54552.57947438834</v>
       </c>
       <c r="E2" t="n">
         <v>59884.80852418039</v>
       </c>
       <c r="F2" t="n">
-        <v>59884.80852418039</v>
+        <v>59884.80852418041</v>
       </c>
       <c r="G2" t="n">
-        <v>59884.80852418039</v>
+        <v>59884.8085241804</v>
       </c>
       <c r="H2" t="n">
         <v>59884.80852418039</v>
@@ -26340,22 +26340,22 @@
         <v>59884.80852418039</v>
       </c>
       <c r="K2" t="n">
-        <v>59884.80852418039</v>
+        <v>59884.80852418042</v>
       </c>
       <c r="L2" t="n">
-        <v>59884.80852418039</v>
+        <v>59884.8085241804</v>
       </c>
       <c r="M2" t="n">
-        <v>59884.80852418039</v>
+        <v>59884.80852418041</v>
       </c>
       <c r="N2" t="n">
-        <v>59884.80852418039</v>
+        <v>59884.80852418041</v>
       </c>
       <c r="O2" t="n">
-        <v>59884.80852418043</v>
+        <v>59884.80852418042</v>
       </c>
       <c r="P2" t="n">
-        <v>59884.80852418043</v>
+        <v>59884.80852418041</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19708.98312032399</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>243566.1203132104</v>
+        <v>262055.141003925</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>53753.7027657232</v>
       </c>
       <c r="D4" t="n">
-        <v>51037.36600445495</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="E4" t="n">
         <v>11476.26007492705</v>
@@ -26475,7 +26475,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34129.29174257201</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
         <v>7110.755217351149</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-48778.27397003476</v>
+        <v>-35142.66739700348</v>
       </c>
       <c r="C6" t="n">
-        <v>-48778.27397003476</v>
+        <v>-35142.66739700347</v>
       </c>
       <c r="D6" t="n">
-        <v>-65393.84769213086</v>
+        <v>-35142.66739700348</v>
       </c>
       <c r="E6" t="n">
-        <v>-216805.8904754972</v>
+        <v>-222211.1041114417</v>
       </c>
       <c r="F6" t="n">
-        <v>26760.22983771315</v>
+        <v>39844.0368924833</v>
       </c>
       <c r="G6" t="n">
-        <v>26760.22983771315</v>
+        <v>39844.03689248329</v>
       </c>
       <c r="H6" t="n">
-        <v>26760.22983771315</v>
+        <v>39844.03689248329</v>
       </c>
       <c r="I6" t="n">
-        <v>26760.22983771315</v>
+        <v>39844.03689248329</v>
       </c>
       <c r="J6" t="n">
-        <v>26760.22983771315</v>
+        <v>39844.03689248329</v>
       </c>
       <c r="K6" t="n">
-        <v>26760.22983771315</v>
+        <v>39844.03689248332</v>
       </c>
       <c r="L6" t="n">
-        <v>26760.22983771315</v>
+        <v>39844.03689248329</v>
       </c>
       <c r="M6" t="n">
-        <v>26760.22983771315</v>
+        <v>39844.0368924833</v>
       </c>
       <c r="N6" t="n">
-        <v>26760.22983771315</v>
+        <v>39844.0368924833</v>
       </c>
       <c r="O6" t="n">
-        <v>26760.22983771318</v>
+        <v>39844.03689248332</v>
       </c>
       <c r="P6" t="n">
-        <v>26760.22983771318</v>
+        <v>39844.0368924833</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>326.1814319885848</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>303.1680493017955</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367558</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887679</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760344</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324494</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679516</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332509</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0495004835149808</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246499</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522957</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847949</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588684</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -33192,7 +33192,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M29" t="n">
-        <v>230.2496698278014</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
@@ -33341,19 +33341,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J31" t="n">
-        <v>41.58545896024957</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K31" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L31" t="n">
-        <v>87.44870719248058</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M31" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N31" t="n">
-        <v>90.01003351907953</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O31" t="n">
         <v>83.13883450095931</v>
@@ -34377,7 +34377,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M44" t="n">
-        <v>230.2496698278013</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
@@ -34526,19 +34526,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J46" t="n">
-        <v>41.58545896024956</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K46" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L46" t="n">
-        <v>87.4487071924806</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M46" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N46" t="n">
-        <v>90.01003351907951</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O46" t="n">
         <v>83.13883450095931</v>
